--- a/public/templates/bags_import_template.xlsx
+++ b/public/templates/bags_import_template.xlsx
@@ -26,10 +26,10 @@
     <t>price</t>
   </si>
   <si>
-    <t>Sample Bag</t>
+    <t>stock</t>
   </si>
   <si>
-    <t>This is a sample description</t>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,7 +377,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,16 +387,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>999.99</v>
       </c>
     </row>
   </sheetData>
